--- a/data/chase6089_activity_Y2023.xlsx
+++ b/data/chase6089_activity_Y2023.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbnostix\Documents\Accounting\2023\1120S\transactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDFB3BF-AED0-4B30-8B26-049D82FF6A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3210C7-BAEA-4879-BBCF-8DFC5180900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="2565" windowWidth="16785" windowHeight="11280"/>
+    <workbookView xWindow="7245" yWindow="2475" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chase6089_activity_Y2023" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">chase6089_activity_Y2023!$A$1:$E$180</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="166">
   <si>
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Post Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -518,12 +518,15 @@
   </si>
   <si>
     <t>AMZN Mktp US*4D7ZC86C3</t>
+  </si>
+  <si>
+    <t>Internet Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1378,21 +1381,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,16 +1416,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45290</v>
       </c>
-      <c r="B2" s="1">
-        <v>45291</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1428,3538 +1430,3113 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>-21.19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45289</v>
       </c>
-      <c r="B3" s="1">
-        <v>45291</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>-267.95999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45288</v>
       </c>
-      <c r="B4" s="1">
-        <v>45289</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>-44.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45288</v>
       </c>
-      <c r="B5" s="1">
-        <v>45289</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>-187.57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45288</v>
       </c>
-      <c r="B6" s="1">
-        <v>45288</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
         <v>-26.49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45284</v>
       </c>
-      <c r="B7" s="1">
-        <v>45285</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45276</v>
       </c>
-      <c r="B8" s="1">
-        <v>45277</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <v>-15.09</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45275</v>
       </c>
-      <c r="B9" s="1">
-        <v>45277</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>-15.89</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45276</v>
       </c>
-      <c r="B10" s="1">
-        <v>45277</v>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>-22.69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45274</v>
       </c>
-      <c r="B11" s="1">
-        <v>45275</v>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>-19.07</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45273</v>
       </c>
-      <c r="B12" s="1">
-        <v>45274</v>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>-20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45272</v>
       </c>
-      <c r="B13" s="1">
-        <v>45272</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>803.18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45271</v>
       </c>
-      <c r="B14" s="1">
-        <v>45272</v>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>-9.99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45268</v>
       </c>
-      <c r="B15" s="1">
-        <v>45270</v>
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>-40.71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45261</v>
       </c>
-      <c r="B16" s="1">
-        <v>45263</v>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>-95.39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45260</v>
       </c>
-      <c r="B17" s="1">
-        <v>45261</v>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>-26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45259</v>
       </c>
-      <c r="B18" s="1">
-        <v>45260</v>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>-40.26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45260</v>
       </c>
-      <c r="B19" s="1">
-        <v>45260</v>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>-40.26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45256</v>
       </c>
-      <c r="B20" s="1">
-        <v>45257</v>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>-139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45255</v>
       </c>
-      <c r="B21" s="1">
-        <v>45256</v>
+      <c r="B21" t="s">
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>-16.91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45254</v>
       </c>
-      <c r="B22" s="1">
-        <v>45256</v>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45255</v>
       </c>
-      <c r="B23" s="1">
-        <v>45256</v>
+      <c r="B23" t="s">
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <v>-51.93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45252</v>
       </c>
-      <c r="B24" s="1">
-        <v>45253</v>
+      <c r="B24" t="s">
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>-89.95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45248</v>
       </c>
-      <c r="B25" s="1">
-        <v>45249</v>
+      <c r="B25" t="s">
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
         <v>-128.56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45247</v>
       </c>
-      <c r="B26" s="1">
-        <v>45249</v>
+      <c r="B26" t="s">
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
+      <c r="E26">
         <v>-7.92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45246</v>
       </c>
-      <c r="B27" s="1">
-        <v>45247</v>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
         <v>-25.38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45246</v>
       </c>
-      <c r="B28" s="1">
-        <v>45247</v>
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
+      <c r="E28">
         <v>-24.37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45242</v>
       </c>
-      <c r="B29" s="1">
-        <v>45244</v>
+      <c r="B29" t="s">
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>-214.61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45243</v>
       </c>
-      <c r="B30" s="1">
-        <v>45244</v>
+      <c r="B30" t="s">
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>-20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45242</v>
       </c>
-      <c r="B31" s="1">
-        <v>45243</v>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31">
+      <c r="E31">
         <v>-10.58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45242</v>
       </c>
-      <c r="B32" s="1">
-        <v>45242</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
         <v>22</v>
       </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32">
+      <c r="E32">
         <v>579.34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45241</v>
       </c>
-      <c r="B33" s="1">
-        <v>45242</v>
+      <c r="B33" t="s">
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <v>-15.39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45241</v>
       </c>
-      <c r="B34" s="1">
-        <v>45242</v>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
+      <c r="E34">
         <v>-9.99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45240</v>
       </c>
-      <c r="B35" s="1">
-        <v>45242</v>
+      <c r="B35" t="s">
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
+      <c r="E35">
         <v>-23.15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45240</v>
       </c>
-      <c r="B36" s="1">
-        <v>45240</v>
+      <c r="B36" t="s">
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
         <v>-13.76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45237</v>
       </c>
-      <c r="B37" s="1">
-        <v>45238</v>
+      <c r="B37" t="s">
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>-56.12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45236</v>
       </c>
-      <c r="B38" s="1">
-        <v>45238</v>
+      <c r="B38" t="s">
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="E38">
         <v>-14.36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45231</v>
       </c>
-      <c r="B39" s="1">
-        <v>45232</v>
+      <c r="B39" t="s">
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39">
+      <c r="E39">
         <v>-20.13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45231</v>
       </c>
-      <c r="B40" s="1">
-        <v>45232</v>
+      <c r="B40" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
         <v>-20.96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45231</v>
       </c>
-      <c r="B41" s="1">
-        <v>45231</v>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
+      <c r="E41">
         <v>-99.58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45231</v>
       </c>
-      <c r="B42" s="1">
-        <v>45231</v>
+      <c r="B42" t="s">
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42">
+      <c r="E42">
         <v>-208.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45223</v>
       </c>
-      <c r="B43" s="1">
-        <v>45224</v>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="E43">
         <v>-5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45219</v>
       </c>
-      <c r="B44" s="1">
-        <v>45221</v>
+      <c r="B44" t="s">
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44">
+      <c r="E44">
         <v>-12.69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45218</v>
       </c>
-      <c r="B45" s="1">
-        <v>45218</v>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45">
+      <c r="E45">
         <v>-24.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45217</v>
       </c>
-      <c r="B46" s="1">
-        <v>45218</v>
+      <c r="B46" t="s">
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46">
+      <c r="E46">
         <v>-13.35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45214</v>
       </c>
-      <c r="B47" s="1">
-        <v>45215</v>
+      <c r="B47" t="s">
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
+      <c r="E47">
         <v>-20.91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45212</v>
       </c>
-      <c r="B48" s="1">
-        <v>45214</v>
+      <c r="B48" t="s">
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45211</v>
       </c>
-      <c r="B49" s="1">
-        <v>45212</v>
+      <c r="B49" t="s">
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <v>-137.79</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45211</v>
       </c>
-      <c r="B50" s="1">
-        <v>45212</v>
+      <c r="B50" t="s">
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <v>-27.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45211</v>
       </c>
-      <c r="B51" s="1">
-        <v>45211</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
         <v>22</v>
       </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51">
+      <c r="E51">
         <v>1099.78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45210</v>
       </c>
-      <c r="B52" s="1">
-        <v>45211</v>
+      <c r="B52" t="s">
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <v>-9.99</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45209</v>
       </c>
-      <c r="B53" s="1">
-        <v>45210</v>
+      <c r="B53" t="s">
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
         <v>-63.57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45209</v>
       </c>
-      <c r="B54" s="1">
-        <v>45210</v>
+      <c r="B54" t="s">
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <v>-68.89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45209</v>
       </c>
-      <c r="B55" s="1">
-        <v>45210</v>
+      <c r="B55" t="s">
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55">
+      <c r="E55">
         <v>-22.53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45207</v>
       </c>
-      <c r="B56" s="1">
-        <v>45208</v>
+      <c r="B56" t="s">
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56">
+      <c r="E56">
         <v>-10.59</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45206</v>
       </c>
-      <c r="B57" s="1">
-        <v>45207</v>
+      <c r="B57" t="s">
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57">
+      <c r="E57">
         <v>-23.75</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45204</v>
       </c>
-      <c r="B58" s="1">
-        <v>45205</v>
+      <c r="B58" t="s">
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58">
+      <c r="E58">
         <v>-28.08</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45204</v>
       </c>
-      <c r="B59" s="1">
-        <v>45205</v>
+      <c r="B59" t="s">
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59">
+      <c r="E59">
         <v>-50.86</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45196</v>
       </c>
-      <c r="B60" s="1">
-        <v>45197</v>
+      <c r="B60" t="s">
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60">
+      <c r="E60">
         <v>-22.89</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45193</v>
       </c>
-      <c r="B61" s="1">
-        <v>45194</v>
+      <c r="B61" t="s">
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="E61">
         <v>-5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45188</v>
       </c>
-      <c r="B62" s="1">
-        <v>45188</v>
+      <c r="B62" t="s">
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62">
+      <c r="E62">
         <v>-52.97</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45186</v>
       </c>
-      <c r="B63" s="1">
-        <v>45187</v>
+      <c r="B63" t="s">
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63">
+      <c r="E63">
         <v>-34.93</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45182</v>
       </c>
-      <c r="B64" s="1">
-        <v>45183</v>
+      <c r="B64" t="s">
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64">
+      <c r="E64">
         <v>-164.29</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45182</v>
       </c>
-      <c r="B65" s="1">
-        <v>45183</v>
+      <c r="B65" t="s">
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65">
+      <c r="E65">
         <v>-93.59</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45182</v>
       </c>
-      <c r="B66" s="1">
-        <v>45183</v>
+      <c r="B66" t="s">
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66">
+      <c r="E66">
         <v>-20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45181</v>
       </c>
-      <c r="B67" s="1">
-        <v>45182</v>
+      <c r="B67" t="s">
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67">
+      <c r="E67">
         <v>-15.9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45181</v>
       </c>
-      <c r="B68" s="1">
-        <v>45181</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68">
+      <c r="E68">
         <v>214.73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45181</v>
       </c>
-      <c r="B69" s="1">
-        <v>45181</v>
+      <c r="B69" t="s">
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69">
+      <c r="E69">
         <v>-44.96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45180</v>
       </c>
-      <c r="B70" s="1">
-        <v>45181</v>
+      <c r="B70" t="s">
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70">
+      <c r="E70">
         <v>-8.99</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45181</v>
       </c>
-      <c r="B71" s="1">
-        <v>45181</v>
+      <c r="B71" t="s">
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71">
+      <c r="E71">
         <v>-24.99</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45181</v>
       </c>
-      <c r="B72" s="1">
-        <v>45181</v>
+      <c r="B72" t="s">
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72">
+      <c r="E72">
         <v>-25.59</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45177</v>
       </c>
-      <c r="B73" s="1">
-        <v>45177</v>
+      <c r="B73" t="s">
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73">
+      <c r="E73">
         <v>-95.39</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45170</v>
       </c>
-      <c r="B74" s="1">
-        <v>45172</v>
+      <c r="B74" t="s">
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74">
+      <c r="E74">
         <v>-231.61</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45163</v>
       </c>
-      <c r="B75" s="1">
-        <v>45165</v>
+      <c r="B75" t="s">
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75">
+      <c r="E75">
         <v>-110.22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45162</v>
       </c>
-      <c r="B76" s="1">
-        <v>45163</v>
+      <c r="B76" t="s">
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="E76">
         <v>-5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45161</v>
       </c>
-      <c r="B77" s="1">
-        <v>45162</v>
+      <c r="B77" t="s">
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77">
+      <c r="E77">
         <v>-140.55000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45160</v>
       </c>
-      <c r="B78" s="1">
-        <v>45161</v>
+      <c r="B78" t="s">
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78">
+      <c r="E78">
         <v>-19.07</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45160</v>
       </c>
-      <c r="B79" s="1">
-        <v>45160</v>
+      <c r="B79" t="s">
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79">
+      <c r="E79">
         <v>-20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45159</v>
       </c>
-      <c r="B80" s="1">
-        <v>45160</v>
+      <c r="B80" t="s">
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80">
+      <c r="E80">
         <v>-15.94</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45159</v>
       </c>
-      <c r="B81" s="1">
-        <v>45159</v>
+      <c r="B81" t="s">
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81">
+      <c r="E81">
         <v>-56.17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45156</v>
       </c>
-      <c r="B82" s="1">
-        <v>45158</v>
+      <c r="B82" t="s">
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82">
+      <c r="E82">
         <v>-7.52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45151</v>
       </c>
-      <c r="B83" s="1">
-        <v>45152</v>
+      <c r="B83" t="s">
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83">
+      <c r="E83">
         <v>-20</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45149</v>
       </c>
-      <c r="B84" s="1">
-        <v>45151</v>
+      <c r="B84" t="s">
+        <v>85</v>
       </c>
       <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
         <v>86</v>
       </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84">
+      <c r="E84">
         <v>127.19</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45149</v>
       </c>
-      <c r="B85" s="1">
-        <v>45151</v>
+      <c r="B85" t="s">
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85">
+      <c r="E85">
         <v>-8.99</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45149</v>
       </c>
-      <c r="B86" s="1">
-        <v>45149</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
         <v>22</v>
       </c>
-      <c r="E86" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86">
+      <c r="E86">
         <v>1042.95</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45148</v>
       </c>
-      <c r="B87" s="1">
-        <v>45149</v>
+      <c r="B87" t="s">
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87">
+      <c r="E87">
         <v>-20.09</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45138</v>
       </c>
-      <c r="B88" s="1">
-        <v>45139</v>
+      <c r="B88" t="s">
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88">
+      <c r="E88">
         <v>-116.04</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45136</v>
       </c>
-      <c r="B89" s="1">
-        <v>45137</v>
+      <c r="B89" t="s">
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89">
+      <c r="E89">
         <v>-11.55</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45135</v>
       </c>
-      <c r="B90" s="1">
-        <v>45137</v>
+      <c r="B90" t="s">
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90">
+      <c r="E90">
         <v>-21.19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45136</v>
       </c>
-      <c r="B91" s="1">
-        <v>45137</v>
+      <c r="B91" t="s">
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91">
+      <c r="E91">
         <v>-11.33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45131</v>
       </c>
-      <c r="B92" s="1">
-        <v>45132</v>
+      <c r="B92" t="s">
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="E92">
         <v>-5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45131</v>
       </c>
-      <c r="B93" s="1">
-        <v>45132</v>
+      <c r="B93" t="s">
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93">
+      <c r="E93">
         <v>-65.91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45131</v>
       </c>
-      <c r="B94" s="1">
-        <v>45132</v>
+      <c r="B94" t="s">
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94">
+      <c r="E94">
         <v>-29</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45124</v>
       </c>
-      <c r="B95" s="1">
-        <v>45125</v>
+      <c r="B95" t="s">
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95">
+      <c r="E95">
         <v>-19.059999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45123</v>
       </c>
-      <c r="B96" s="1">
-        <v>45124</v>
+      <c r="B96" t="s">
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96">
+      <c r="E96">
         <v>-13.76</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45120</v>
       </c>
-      <c r="B97" s="1">
-        <v>45121</v>
+      <c r="B97" t="s">
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97">
+      <c r="E97">
         <v>-20</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45119</v>
       </c>
-      <c r="B98" s="1">
-        <v>45120</v>
+      <c r="B98" t="s">
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98">
+      <c r="E98">
         <v>-127.19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45119</v>
       </c>
-      <c r="B99" s="1">
-        <v>45119</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
         <v>22</v>
       </c>
-      <c r="E99" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99">
+      <c r="E99">
         <v>520.36</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45118</v>
       </c>
-      <c r="B100" s="1">
-        <v>45119</v>
+      <c r="B100" t="s">
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100">
+      <c r="E100">
         <v>-8.99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45117</v>
       </c>
-      <c r="B101" s="1">
-        <v>45118</v>
+      <c r="B101" t="s">
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101">
+      <c r="E101">
         <v>-34.97</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45114</v>
       </c>
-      <c r="B102" s="1">
-        <v>45116</v>
+      <c r="B102" t="s">
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102">
+      <c r="E102">
         <v>-89.2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45107</v>
       </c>
-      <c r="B103" s="1">
-        <v>45107</v>
+      <c r="B103" t="s">
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103">
+      <c r="E103">
         <v>-50.86</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45106</v>
       </c>
-      <c r="B104" s="1">
-        <v>45107</v>
+      <c r="B104" t="s">
+        <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104">
+      <c r="E104">
         <v>-31.79</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45101</v>
       </c>
-      <c r="B105" s="1">
-        <v>45102</v>
+      <c r="B105" t="s">
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105">
+      <c r="E105">
         <v>-217.29</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45101</v>
       </c>
-      <c r="B106" s="1">
-        <v>45102</v>
+      <c r="B106" t="s">
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="E106">
         <v>-5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45100</v>
       </c>
-      <c r="B107" s="1">
-        <v>45100</v>
+      <c r="B107" t="s">
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107">
+      <c r="E107">
         <v>-84.78</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45098</v>
       </c>
-      <c r="B108" s="1">
-        <v>45099</v>
+      <c r="B108" t="s">
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108">
+      <c r="E108">
         <v>-94.34</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45098</v>
       </c>
-      <c r="B109" s="1">
-        <v>45099</v>
+      <c r="B109" t="s">
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109">
+      <c r="E109">
         <v>-33.909999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45098</v>
       </c>
-      <c r="B110" s="1">
-        <v>45099</v>
+      <c r="B110" t="s">
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
-      <c r="E110" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110">
+      <c r="E110">
         <v>-50.86</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45097</v>
       </c>
-      <c r="B111" s="1">
-        <v>45098</v>
+      <c r="B111" t="s">
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111">
+      <c r="E111">
         <v>-120.65</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45093</v>
       </c>
-      <c r="B112" s="1">
-        <v>45095</v>
+      <c r="B112" t="s">
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112">
+      <c r="E112">
         <v>-21.19</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45094</v>
       </c>
-      <c r="B113" s="1">
-        <v>45095</v>
+      <c r="B113" t="s">
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113">
+      <c r="E113">
         <v>-51.93</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45090</v>
       </c>
-      <c r="B114" s="1">
-        <v>45091</v>
+      <c r="B114" t="s">
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
-      <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114">
+      <c r="E114">
         <v>-20</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45089</v>
       </c>
-      <c r="B115" s="1">
-        <v>45089</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
         <v>22</v>
       </c>
-      <c r="E115" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115">
+      <c r="E115">
         <v>417.39</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45088</v>
       </c>
-      <c r="B116" s="1">
-        <v>45088</v>
+      <c r="B116" t="s">
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116">
+      <c r="E116">
         <v>-30.6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45088</v>
       </c>
-      <c r="B117" s="1">
-        <v>45088</v>
+      <c r="B117" t="s">
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117">
+      <c r="E117">
         <v>-134.97</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45087</v>
       </c>
-      <c r="B118" s="1">
-        <v>45088</v>
+      <c r="B118" t="s">
+        <v>113</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118">
+      <c r="E118">
         <v>-12.59</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45085</v>
       </c>
-      <c r="B119" s="1">
-        <v>45086</v>
+      <c r="B119" t="s">
+        <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119">
+      <c r="E119">
         <v>-29</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45070</v>
       </c>
-      <c r="B120" s="1">
-        <v>45071</v>
+      <c r="B120" t="s">
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120">
+        <v>8</v>
+      </c>
+      <c r="E120">
         <v>-5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45069</v>
       </c>
-      <c r="B121" s="1">
-        <v>45069</v>
+      <c r="B121" t="s">
+        <v>115</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121">
+      <c r="E121">
         <v>-10.56</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45066</v>
       </c>
-      <c r="B122" s="1">
-        <v>45067</v>
+      <c r="B122" t="s">
+        <v>116</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122">
+      <c r="E122">
         <v>-55.32</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45066</v>
       </c>
-      <c r="B123" s="1">
-        <v>45067</v>
+      <c r="B123" t="s">
+        <v>117</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123">
+      <c r="E123">
         <v>-16.940000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45063</v>
       </c>
-      <c r="B124" s="1">
-        <v>45064</v>
+      <c r="B124" t="s">
+        <v>118</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124">
+      <c r="E124">
         <v>-49.69</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45063</v>
       </c>
-      <c r="B125" s="1">
-        <v>45064</v>
+      <c r="B125" t="s">
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125">
+      <c r="E125">
         <v>-133.55000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45062</v>
       </c>
-      <c r="B126" s="1">
-        <v>45062</v>
+      <c r="B126" t="s">
+        <v>120</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126">
+      <c r="E126">
         <v>-22.14</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45059</v>
       </c>
-      <c r="B127" s="1">
-        <v>45060</v>
+      <c r="B127" t="s">
+        <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127">
+      <c r="E127">
         <v>-20</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45058</v>
       </c>
-      <c r="B128" s="1">
-        <v>45058</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
         <v>22</v>
       </c>
-      <c r="E128" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128">
+      <c r="E128">
         <v>451.55</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45056</v>
       </c>
-      <c r="B129" s="1">
-        <v>45056</v>
+      <c r="B129" t="s">
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
       </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129">
+      <c r="E129">
         <v>-8.4700000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45056</v>
       </c>
-      <c r="B130" s="1">
-        <v>45056</v>
+      <c r="B130" t="s">
+        <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
       </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130">
+      <c r="E130">
         <v>-8.7899999999999991</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45050</v>
       </c>
-      <c r="B131" s="1">
-        <v>45050</v>
+      <c r="B131" t="s">
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
       </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131">
+      <c r="E131">
         <v>-26.49</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45043</v>
       </c>
-      <c r="B132" s="1">
-        <v>45043</v>
+      <c r="B132" t="s">
+        <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
       </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132">
+      <c r="E132">
         <v>-38.15</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45040</v>
       </c>
-      <c r="B133" s="1">
-        <v>45041</v>
+      <c r="B133" t="s">
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="E133">
         <v>-5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45037</v>
       </c>
-      <c r="B134" s="1">
-        <v>45039</v>
+      <c r="B134" t="s">
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
       </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134">
+      <c r="E134">
         <v>-95.39</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45036</v>
       </c>
-      <c r="B135" s="1">
-        <v>45037</v>
+      <c r="B135" t="s">
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135">
+      <c r="E135">
         <v>-46.63</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45033</v>
       </c>
-      <c r="B136" s="1">
-        <v>45034</v>
+      <c r="B136" t="s">
+        <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
       </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136">
+      <c r="E136">
         <v>-92.19</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45030</v>
       </c>
-      <c r="B137" s="1">
-        <v>45034</v>
+      <c r="B137" t="s">
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
       </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137">
+      <c r="E137">
         <v>-76.28</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45029</v>
       </c>
-      <c r="B138" s="1">
-        <v>45030</v>
+      <c r="B138" t="s">
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
       </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138">
+      <c r="E138">
         <v>-20</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45028</v>
       </c>
-      <c r="B139" s="1">
-        <v>45029</v>
+      <c r="B139" t="s">
+        <v>129</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
       </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139">
+      <c r="E139">
         <v>-37.07</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45028</v>
       </c>
-      <c r="B140" s="1">
-        <v>45029</v>
+      <c r="B140" t="s">
+        <v>130</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
       </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140">
+      <c r="E140">
         <v>-27.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45028</v>
       </c>
-      <c r="B141" s="1">
-        <v>45028</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" t="s">
         <v>22</v>
       </c>
-      <c r="E141" t="s">
-        <v>23</v>
-      </c>
-      <c r="F141">
+      <c r="E141">
         <v>375.76</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45020</v>
       </c>
-      <c r="B142" s="1">
-        <v>45020</v>
+      <c r="B142" t="s">
+        <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
       </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142">
+      <c r="E142">
         <v>-29.65</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45020</v>
       </c>
-      <c r="B143" s="1">
-        <v>45020</v>
+      <c r="B143" t="s">
+        <v>132</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
       </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143">
+      <c r="E143">
         <v>-126</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45020</v>
       </c>
-      <c r="B144" s="1">
-        <v>45020</v>
+      <c r="B144" t="s">
+        <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
       </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144">
+      <c r="E144">
         <v>-47.68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45015</v>
       </c>
-      <c r="B145" s="1">
-        <v>45016</v>
+      <c r="B145" t="s">
+        <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
       </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145">
+      <c r="E145">
         <v>-54.57</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45015</v>
       </c>
-      <c r="B146" s="1">
-        <v>45016</v>
+      <c r="B146" t="s">
+        <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
       </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146">
+      <c r="E146">
         <v>-31.01</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45009</v>
       </c>
-      <c r="B147" s="1">
-        <v>45011</v>
+      <c r="B147" t="s">
+        <v>14</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147">
+        <v>8</v>
+      </c>
+      <c r="E147">
         <v>-5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45002</v>
       </c>
-      <c r="B148" s="1">
-        <v>45004</v>
+      <c r="B148" t="s">
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
       </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148">
+      <c r="E148">
         <v>-23.31</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45001</v>
       </c>
-      <c r="B149" s="1">
-        <v>45002</v>
+      <c r="B149" t="s">
+        <v>137</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
       </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149">
+      <c r="E149">
         <v>-29.67</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45002</v>
       </c>
-      <c r="B150" s="1">
-        <v>45002</v>
+      <c r="B150" t="s">
+        <v>138</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
       </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150">
+      <c r="E150">
         <v>-20.09</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44998</v>
       </c>
-      <c r="B151" s="1">
-        <v>44999</v>
+      <c r="B151" t="s">
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
       </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151">
+      <c r="E151">
         <v>-20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44997</v>
       </c>
-      <c r="B152" s="1">
-        <v>44997</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" t="s">
         <v>22</v>
       </c>
-      <c r="E152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152">
+      <c r="E152">
         <v>690.55</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44995</v>
       </c>
-      <c r="B153" s="1">
-        <v>44997</v>
+      <c r="B153" t="s">
+        <v>139</v>
       </c>
       <c r="C153" t="s">
         <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="E153">
         <v>-75</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44990</v>
       </c>
-      <c r="B154" s="1">
-        <v>44991</v>
+      <c r="B154" t="s">
+        <v>141</v>
       </c>
       <c r="C154" t="s">
         <v>142</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="E154">
         <v>-53.53</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44991</v>
       </c>
-      <c r="B155" s="1">
-        <v>44991</v>
+      <c r="B155" t="s">
+        <v>143</v>
       </c>
       <c r="C155" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
       </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155">
+      <c r="E155">
         <v>-78.400000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44986</v>
       </c>
-      <c r="B156" s="1">
-        <v>44987</v>
+      <c r="B156" t="s">
+        <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
       </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156">
+      <c r="E156">
         <v>-8.16</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44987</v>
       </c>
-      <c r="B157" s="1">
-        <v>44987</v>
+      <c r="B157" t="s">
+        <v>145</v>
       </c>
       <c r="C157" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
       </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157">
+      <c r="E157">
         <v>-21.19</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44981</v>
       </c>
-      <c r="B158" s="1">
-        <v>44983</v>
+      <c r="B158" t="s">
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="E158">
         <v>-5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44979</v>
       </c>
-      <c r="B159" s="1">
-        <v>44980</v>
+      <c r="B159" t="s">
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
       </c>
-      <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159">
+      <c r="E159">
         <v>-74.19</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44978</v>
       </c>
-      <c r="B160" s="1">
-        <v>44979</v>
+      <c r="B160" t="s">
+        <v>147</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
       </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160">
+      <c r="E160">
         <v>-40.29</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44969</v>
       </c>
-      <c r="B161" s="1">
-        <v>44969</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" t="s">
         <v>22</v>
       </c>
-      <c r="E161" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161">
+      <c r="E161">
         <v>559.96</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44966</v>
       </c>
-      <c r="B162" s="1">
-        <v>44967</v>
+      <c r="B162" t="s">
+        <v>148</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162">
+      <c r="E162">
         <v>-19.059999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44963</v>
       </c>
-      <c r="B163" s="1">
-        <v>44964</v>
+      <c r="B163" t="s">
+        <v>149</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
       </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163">
+      <c r="E163">
         <v>-102.82</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44955</v>
       </c>
-      <c r="B164" s="1">
-        <v>44956</v>
+      <c r="B164" t="s">
+        <v>150</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164">
+      <c r="E164">
         <v>-189.73</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44954</v>
       </c>
-      <c r="B165" s="1">
-        <v>44955</v>
+      <c r="B165" t="s">
+        <v>151</v>
       </c>
       <c r="C165" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
       </c>
-      <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165">
+      <c r="E165">
         <v>-26.49</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44952</v>
       </c>
-      <c r="B166" s="1">
-        <v>44953</v>
+      <c r="B166" t="s">
+        <v>152</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
         <v>8</v>
       </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166">
+      <c r="E166">
         <v>-180.19</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44950</v>
       </c>
-      <c r="B167" s="1">
-        <v>44951</v>
+      <c r="B167" t="s">
+        <v>14</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167">
+        <v>8</v>
+      </c>
+      <c r="E167">
         <v>-5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44945</v>
       </c>
-      <c r="B168" s="1">
-        <v>44946</v>
+      <c r="B168" t="s">
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
       </c>
-      <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168">
+      <c r="E168">
         <v>-59.81</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44945</v>
       </c>
-      <c r="B169" s="1">
-        <v>44946</v>
+      <c r="B169" t="s">
+        <v>154</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
       </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169">
+      <c r="E169">
         <v>-51.28</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44944</v>
       </c>
-      <c r="B170" s="1">
-        <v>44945</v>
+      <c r="B170" t="s">
+        <v>155</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
         <v>8</v>
       </c>
-      <c r="E170" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170">
+      <c r="E170">
         <v>-56.17</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44938</v>
       </c>
-      <c r="B171" s="1">
-        <v>44938</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
         <v>22</v>
       </c>
-      <c r="E171" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171">
+      <c r="E171">
         <v>1086.58</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44936</v>
       </c>
-      <c r="B172" s="1">
-        <v>44936</v>
+      <c r="B172" t="s">
+        <v>156</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
       </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172">
+      <c r="E172">
         <v>-13.77</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44935</v>
       </c>
-      <c r="B173" s="1">
-        <v>44936</v>
+      <c r="B173" t="s">
+        <v>157</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
       </c>
-      <c r="E173" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173">
+      <c r="E173">
         <v>-19.07</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44935</v>
       </c>
-      <c r="B174" s="1">
-        <v>44936</v>
+      <c r="B174" t="s">
+        <v>158</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
       </c>
-      <c r="E174" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174">
+      <c r="E174">
         <v>-11.65</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44932</v>
       </c>
-      <c r="B175" s="1">
-        <v>44934</v>
+      <c r="B175" t="s">
+        <v>159</v>
       </c>
       <c r="C175" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
       </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175">
+      <c r="E175">
         <v>-8.4499999999999993</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44931</v>
       </c>
-      <c r="B176" s="1">
-        <v>44931</v>
+      <c r="B176" t="s">
+        <v>160</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
       </c>
-      <c r="E176" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176">
+      <c r="E176">
         <v>-47.4</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44931</v>
       </c>
-      <c r="B177" s="1">
-        <v>44931</v>
+      <c r="B177" t="s">
+        <v>161</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
         <v>8</v>
       </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177">
+      <c r="E177">
         <v>-11.56</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44928</v>
       </c>
-      <c r="B178" s="1">
-        <v>44929</v>
+      <c r="B178" t="s">
+        <v>162</v>
       </c>
       <c r="C178" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
       </c>
-      <c r="E178" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178">
+      <c r="E178">
         <v>-169.59</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44928</v>
       </c>
-      <c r="B179" s="1">
-        <v>44929</v>
+      <c r="B179" t="s">
+        <v>163</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
       </c>
-      <c r="E179" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179">
+      <c r="E179">
         <v>-12.18</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44926</v>
       </c>
-      <c r="B180" s="1">
-        <v>44927</v>
+      <c r="B180" t="s">
+        <v>164</v>
       </c>
       <c r="C180" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
       </c>
-      <c r="E180" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180">
+      <c r="E180">
         <v>-41.32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E180" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AMZN Mktp US*0L23U22N3"/>
+        <filter val="AMZN Mktp US*2U65C7GM3"/>
+        <filter val="AMZN Mktp US*2V7O86K23"/>
+        <filter val="AMZN Mktp US*3B2FW6SN3"/>
+        <filter val="AMZN Mktp US*4D7ZC86C3"/>
+        <filter val="AMZN Mktp US*4I04R7ZM3"/>
+        <filter val="AMZN Mktp US*4L53S85Q3"/>
+        <filter val="AMZN Mktp US*4Q65U9EW3"/>
+        <filter val="AMZN Mktp US*4Y7NU0YM3"/>
+        <filter val="AMZN Mktp US*571RN34P3"/>
+        <filter val="AMZN Mktp US*5D9I714R3"/>
+        <filter val="AMZN Mktp US*5E1C785W3"/>
+        <filter val="AMZN Mktp US*5K8YS0JN3"/>
+        <filter val="AMZN Mktp US*5O3BZ68Z3"/>
+        <filter val="AMZN Mktp US*7216Q8GV3"/>
+        <filter val="AMZN Mktp US*8P6YA1513"/>
+        <filter val="AMZN Mktp US*8T0G71YY3"/>
+        <filter val="AMZN Mktp US*8X13G45Y3"/>
+        <filter val="AMZN Mktp US*9U9YJ3IJ3"/>
+        <filter val="AMZN Mktp US*BO49N5CM3"/>
+        <filter val="AMZN Mktp US*C38G43QK3"/>
+        <filter val="AMZN Mktp US*CN2CB9AR3"/>
+        <filter val="AMZN Mktp US*CQ1W73NY3"/>
+        <filter val="AMZN Mktp US*D40W70613"/>
+        <filter val="AMZN Mktp US*DA4FU0QJ3"/>
+        <filter val="AMZN Mktp US*E99286WH3"/>
+        <filter val="AMZN Mktp US*EF4LN3GK3"/>
+        <filter val="AMZN Mktp US*F862P69Y3"/>
+        <filter val="AMZN Mktp US*FI9XY7BD3"/>
+        <filter val="AMZN Mktp US*FQ6484OA3"/>
+        <filter val="AMZN Mktp US*FT92F9GN3"/>
+        <filter val="AMZN Mktp US*FW78B9OQ3"/>
+        <filter val="AMZN Mktp US*GN5EI0A43"/>
+        <filter val="AMZN Mktp US*GT19T3D13"/>
+        <filter val="AMZN Mktp US*H596Y6IO0"/>
+        <filter val="AMZN Mktp US*H59EV8AR0"/>
+        <filter val="AMZN Mktp US*HC1XE4N81"/>
+        <filter val="AMZN Mktp US*HC4HZ5FO2"/>
+        <filter val="AMZN Mktp US*HC7H64830"/>
+        <filter val="AMZN Mktp US*HD7KJ6QE1"/>
+        <filter val="AMZN Mktp US*HD90V1CD0"/>
+        <filter val="AMZN Mktp US*HE2MT2LW0"/>
+        <filter val="AMZN Mktp US*HJ1K104M3"/>
+        <filter val="AMZN Mktp US*HJ2DV5GV1"/>
+        <filter val="AMZN Mktp US*HJ6RY2P01"/>
+        <filter val="AMZN Mktp US*HP0ZI0UX0"/>
+        <filter val="AMZN Mktp US*HS5GN3GS0"/>
+        <filter val="AMZN Mktp US*HS6NY1GA0"/>
+        <filter val="AMZN Mktp US*HV0YD0XK0"/>
+        <filter val="AMZN Mktp US*HV4W81BM2"/>
+        <filter val="AMZN Mktp US*HV6Q58CE0"/>
+        <filter val="AMZN Mktp US*HV76O9KL2"/>
+        <filter val="AMZN Mktp US*HY1YF19P0"/>
+        <filter val="AMZN Mktp US*HY70F7M81"/>
+        <filter val="AMZN Mktp US*I529A5FV3"/>
+        <filter val="AMZN Mktp US*I572H7JI3"/>
+        <filter val="AMZN Mktp US*IV4UM5C23"/>
+        <filter val="AMZN Mktp US*JX2YT0TP3"/>
+        <filter val="AMZN Mktp US*KA9UI22Y3"/>
+        <filter val="AMZN Mktp US*LD0OO2AF3"/>
+        <filter val="AMZN Mktp US*LD4VY23Q3"/>
+        <filter val="AMZN Mktp US*N94GT0NI3"/>
+        <filter val="AMZN Mktp US*NN0WL0RY3"/>
+        <filter val="AMZN Mktp US*OF1GQ0LQ3"/>
+        <filter val="AMZN Mktp US*OS7OW6N83"/>
+        <filter val="AMZN Mktp US*QH9PE76H3"/>
+        <filter val="AMZN Mktp US*QJ6SB8H13"/>
+        <filter val="AMZN Mktp US*R24W31AA3"/>
+        <filter val="AMZN Mktp US*RU1LZ3DE3"/>
+        <filter val="AMZN Mktp US*SG5W12Z93"/>
+        <filter val="AMZN Mktp US*SK3Q79RG3"/>
+        <filter val="AMZN Mktp US*SV1YQ6I93"/>
+        <filter val="AMZN Mktp US*T19M74EO1"/>
+        <filter val="AMZN Mktp US*T38588CW2"/>
+        <filter val="AMZN Mktp US*T979B5W40"/>
+        <filter val="AMZN Mktp US*T99CP6X31"/>
+        <filter val="AMZN Mktp US*TA7VP62T1"/>
+        <filter val="AMZN Mktp US*TB8O01OR2"/>
+        <filter val="AMZN Mktp US*TD83W1TB2"/>
+        <filter val="AMZN Mktp US*TE0YG5BX2"/>
+        <filter val="AMZN Mktp US*TE3EA7232"/>
+        <filter val="AMZN Mktp US*TE7MQ8UL2"/>
+        <filter val="AMZN Mktp US*TE9K45772"/>
+        <filter val="AMZN Mktp US*TH43C7Z42"/>
+        <filter val="AMZN Mktp US*TH5K47QV3"/>
+        <filter val="AMZN Mktp US*TH8D40O61"/>
+        <filter val="AMZN Mktp US*TP2Q94QR1"/>
+        <filter val="AMZN Mktp US*TP39G2MR2"/>
+        <filter val="AMZN Mktp US*TP3RI68W1"/>
+        <filter val="AMZN Mktp US*TQ3U42WG1"/>
+        <filter val="AMZN Mktp US*TQ6C68T51"/>
+        <filter val="AMZN Mktp US*TQ76T20F2"/>
+        <filter val="AMZN Mktp US*TQ8S35M00"/>
+        <filter val="AMZN Mktp US*TQ96M3PR1"/>
+        <filter val="AMZN Mktp US*TR2KH0800"/>
+        <filter val="AMZN Mktp US*TR32P3C20"/>
+        <filter val="AMZN Mktp US*TR3GK2UB0"/>
+        <filter val="AMZN Mktp US*TR4B34S32"/>
+        <filter val="AMZN Mktp US*TR64J6RZ2"/>
+        <filter val="AMZN Mktp US*TR8NL9QK0"/>
+        <filter val="AMZN Mktp US*TW4G13AA3"/>
+        <filter val="AMZN Mktp US*TX2SO01J0"/>
+        <filter val="AMZN Mktp US*TX6NO2ZL1"/>
+        <filter val="AMZN Mktp US*VE8P73O03"/>
+        <filter val="AMZN Mktp US*X47ME2F73"/>
+        <filter val="AMZN Mktp US*ZW6ZK5J33"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>